--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H2">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I2">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J2">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.722831000000001</v>
+        <v>2.33201</v>
       </c>
       <c r="N2">
-        <v>11.168493</v>
+        <v>6.99603</v>
       </c>
       <c r="O2">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789547</v>
       </c>
       <c r="P2">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789548</v>
       </c>
       <c r="Q2">
-        <v>27.22319175995067</v>
+        <v>40.61160590317334</v>
       </c>
       <c r="R2">
-        <v>245.008725839556</v>
+        <v>365.50445312856</v>
       </c>
       <c r="S2">
-        <v>0.01219784557552691</v>
+        <v>0.03459459871351176</v>
       </c>
       <c r="T2">
-        <v>0.01219784557552691</v>
+        <v>0.03459459871351176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H3">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I3">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J3">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>1.746044</v>
       </c>
       <c r="N3">
-        <v>5.238132</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O3">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="P3">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="Q3">
-        <v>12.76794209388267</v>
+        <v>30.40709551742933</v>
       </c>
       <c r="R3">
-        <v>114.911478844944</v>
+        <v>273.663859656864</v>
       </c>
       <c r="S3">
-        <v>0.005720908383989309</v>
+        <v>0.02590198649068182</v>
       </c>
       <c r="T3">
-        <v>0.005720908383989309</v>
+        <v>0.02590198649068182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H4">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I4">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J4">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.291125333333333</v>
+        <v>1.145780666666667</v>
       </c>
       <c r="N4">
-        <v>3.873376</v>
+        <v>3.437342</v>
       </c>
       <c r="O4">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="P4">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="Q4">
-        <v>9.44135055699911</v>
+        <v>19.95359920675378</v>
       </c>
       <c r="R4">
-        <v>84.97215501299199</v>
+        <v>179.582392860784</v>
       </c>
       <c r="S4">
-        <v>0.00423036861857299</v>
+        <v>0.0169972780464206</v>
       </c>
       <c r="T4">
-        <v>0.00423036861857299</v>
+        <v>0.0169972780464206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H5">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I5">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J5">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.46242466666667</v>
+        <v>1.835881666666667</v>
       </c>
       <c r="N5">
-        <v>34.387274</v>
+        <v>5.507645</v>
       </c>
       <c r="O5">
-        <v>0.629028500140166</v>
+        <v>0.2600503447990285</v>
       </c>
       <c r="P5">
-        <v>0.6290285001401661</v>
+        <v>0.2600503447990286</v>
       </c>
       <c r="Q5">
-        <v>83.81894980853421</v>
+        <v>31.97160506667112</v>
       </c>
       <c r="R5">
-        <v>754.3705482768079</v>
+        <v>287.74444560004</v>
       </c>
       <c r="S5">
-        <v>0.0375566030274032</v>
+        <v>0.02723469862643234</v>
       </c>
       <c r="T5">
-        <v>0.03755660302740321</v>
+        <v>0.02723469862643235</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>89.046638</v>
       </c>
       <c r="I6">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J6">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.722831000000001</v>
+        <v>2.33201</v>
       </c>
       <c r="N6">
-        <v>11.168493</v>
+        <v>6.99603</v>
       </c>
       <c r="O6">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789547</v>
       </c>
       <c r="P6">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789548</v>
       </c>
       <c r="Q6">
-        <v>110.5018614640594</v>
+        <v>69.21921676079333</v>
       </c>
       <c r="R6">
-        <v>994.5167531765342</v>
+        <v>622.9729508471401</v>
       </c>
       <c r="S6">
-        <v>0.04951236628798983</v>
+        <v>0.05896371182199718</v>
       </c>
       <c r="T6">
-        <v>0.04951236628798982</v>
+        <v>0.0589637118219972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>89.046638</v>
       </c>
       <c r="I7">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J7">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>1.746044</v>
       </c>
       <c r="N7">
-        <v>5.238132</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O7">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="P7">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="Q7">
-        <v>51.82644933335734</v>
+        <v>51.82644933335732</v>
       </c>
       <c r="R7">
-        <v>466.4380440002161</v>
+        <v>466.4380440002159</v>
       </c>
       <c r="S7">
-        <v>0.02322178204784125</v>
+        <v>0.04414785324442315</v>
       </c>
       <c r="T7">
-        <v>0.02322178204784125</v>
+        <v>0.04414785324442316</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>89.046638</v>
       </c>
       <c r="I8">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J8">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.291125333333333</v>
+        <v>1.145780666666667</v>
       </c>
       <c r="N8">
-        <v>3.873376</v>
+        <v>3.437342</v>
       </c>
       <c r="O8">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="P8">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="Q8">
-        <v>38.32345672332089</v>
+        <v>34.00930541735511</v>
       </c>
       <c r="R8">
-        <v>344.911110509888</v>
+        <v>306.083748756196</v>
       </c>
       <c r="S8">
-        <v>0.01717152092794514</v>
+        <v>0.02897049371166896</v>
       </c>
       <c r="T8">
-        <v>0.01717152092794514</v>
+        <v>0.02897049371166897</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>89.046638</v>
       </c>
       <c r="I9">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J9">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.46242466666667</v>
+        <v>1.835881666666667</v>
       </c>
       <c r="N9">
-        <v>34.387274</v>
+        <v>5.507645</v>
       </c>
       <c r="O9">
-        <v>0.629028500140166</v>
+        <v>0.2600503447990285</v>
       </c>
       <c r="P9">
-        <v>0.6290285001401661</v>
+        <v>0.2600503447990286</v>
       </c>
       <c r="Q9">
-        <v>340.2301266316458</v>
+        <v>54.49303006083445</v>
       </c>
       <c r="R9">
-        <v>3062.071139684812</v>
+        <v>490.43727054751</v>
       </c>
       <c r="S9">
-        <v>0.1524462884950968</v>
+        <v>0.04641935391898886</v>
       </c>
       <c r="T9">
-        <v>0.1524462884950968</v>
+        <v>0.04641935391898888</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H10">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I10">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J10">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.722831000000001</v>
+        <v>2.33201</v>
       </c>
       <c r="N10">
-        <v>11.168493</v>
+        <v>6.99603</v>
       </c>
       <c r="O10">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789547</v>
       </c>
       <c r="P10">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789548</v>
       </c>
       <c r="Q10">
-        <v>277.0390541518483</v>
+        <v>195.9599950664567</v>
       </c>
       <c r="R10">
-        <v>2493.351487366635</v>
+        <v>1763.63995559811</v>
       </c>
       <c r="S10">
-        <v>0.1241323806088639</v>
+        <v>0.1669266024443544</v>
       </c>
       <c r="T10">
-        <v>0.1241323806088639</v>
+        <v>0.1669266024443544</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H11">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I11">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J11">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>1.746044</v>
       </c>
       <c r="N11">
-        <v>5.238132</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O11">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="P11">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="Q11">
-        <v>129.9340148041933</v>
+        <v>146.7209718765426</v>
       </c>
       <c r="R11">
-        <v>1169.40613323774</v>
+        <v>1320.488746888884</v>
       </c>
       <c r="S11">
-        <v>0.05821929557581934</v>
+        <v>0.1249828228173765</v>
       </c>
       <c r="T11">
-        <v>0.05821929557581934</v>
+        <v>0.1249828228173766</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H12">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I12">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J12">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.291125333333333</v>
+        <v>1.145780666666667</v>
       </c>
       <c r="N12">
-        <v>3.873376</v>
+        <v>3.437342</v>
       </c>
       <c r="O12">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="P12">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="Q12">
-        <v>96.08068191603554</v>
+        <v>96.28053644162821</v>
       </c>
       <c r="R12">
-        <v>864.7261372443199</v>
+        <v>866.5248279746539</v>
       </c>
       <c r="S12">
-        <v>0.04305069483172336</v>
+        <v>0.08201563193686733</v>
       </c>
       <c r="T12">
-        <v>0.04305069483172336</v>
+        <v>0.08201563193686734</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H13">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I13">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J13">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.46242466666667</v>
+        <v>1.835881666666667</v>
       </c>
       <c r="N13">
-        <v>34.387274</v>
+        <v>5.507645</v>
       </c>
       <c r="O13">
-        <v>0.629028500140166</v>
+        <v>0.2600503447990285</v>
       </c>
       <c r="P13">
-        <v>0.6290285001401661</v>
+        <v>0.2600503447990286</v>
       </c>
       <c r="Q13">
-        <v>852.9904494563809</v>
+        <v>154.2700770333739</v>
       </c>
       <c r="R13">
-        <v>7676.914045107429</v>
+        <v>1388.430693300365</v>
       </c>
       <c r="S13">
-        <v>0.3821978653941304</v>
+        <v>0.1314134541046331</v>
       </c>
       <c r="T13">
-        <v>0.3821978653941305</v>
+        <v>0.1314134541046331</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H14">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I14">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J14">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.722831000000001</v>
+        <v>2.33201</v>
       </c>
       <c r="N14">
-        <v>11.168493</v>
+        <v>6.99603</v>
       </c>
       <c r="O14">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789547</v>
       </c>
       <c r="P14">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789548</v>
       </c>
       <c r="Q14">
-        <v>41.19202553891134</v>
+        <v>81.98884022814001</v>
       </c>
       <c r="R14">
-        <v>370.728229850202</v>
+        <v>737.89956205326</v>
       </c>
       <c r="S14">
-        <v>0.01845683529313359</v>
+        <v>0.06984139049909135</v>
       </c>
       <c r="T14">
-        <v>0.0184568352931336</v>
+        <v>0.06984139049909137</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H15">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I15">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J15">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>1.746044</v>
       </c>
       <c r="N15">
-        <v>5.238132</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O15">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="P15">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="Q15">
-        <v>19.31946119500533</v>
+        <v>61.387439396616</v>
       </c>
       <c r="R15">
-        <v>173.875150755048</v>
+        <v>552.486954569544</v>
       </c>
       <c r="S15">
-        <v>0.008656435525159252</v>
+        <v>0.05229228898357874</v>
       </c>
       <c r="T15">
-        <v>0.008656435525159253</v>
+        <v>0.05229228898357875</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H16">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I16">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J16">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.291125333333333</v>
+        <v>1.145780666666667</v>
       </c>
       <c r="N16">
-        <v>3.873376</v>
+        <v>3.437342</v>
       </c>
       <c r="O16">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="P16">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="Q16">
-        <v>14.28592050098489</v>
+        <v>40.283372719596</v>
       </c>
       <c r="R16">
-        <v>128.573284508864</v>
+        <v>362.550354476364</v>
       </c>
       <c r="S16">
-        <v>0.006401066183269005</v>
+        <v>0.03431499649099956</v>
       </c>
       <c r="T16">
-        <v>0.006401066183269006</v>
+        <v>0.03431499649099957</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H17">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I17">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J17">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.46242466666667</v>
+        <v>1.835881666666667</v>
       </c>
       <c r="N17">
-        <v>34.387274</v>
+        <v>5.507645</v>
       </c>
       <c r="O17">
-        <v>0.629028500140166</v>
+        <v>0.2600503447990285</v>
       </c>
       <c r="P17">
-        <v>0.6290285001401661</v>
+        <v>0.2600503447990286</v>
       </c>
       <c r="Q17">
-        <v>126.8283437005818</v>
+        <v>64.54595333901</v>
       </c>
       <c r="R17">
-        <v>1141.455093305236</v>
+        <v>580.91358005109</v>
       </c>
       <c r="S17">
-        <v>0.05682774322353561</v>
+        <v>0.05498283814897421</v>
       </c>
       <c r="T17">
-        <v>0.05682774322353563</v>
+        <v>0.05498283814897421</v>
       </c>
     </row>
   </sheetData>
